--- a/UniMatch/data/database/dataset.xlsx
+++ b/UniMatch/data/database/dataset.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\UniMatch\UniMatch\data\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EED98C-BEA0-472D-B163-AABBD0B0F7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB048E70-B1B9-4502-A76D-16A747B68646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Users" sheetId="1" r:id="rId1"/>
-    <sheet name="UserPreferences" sheetId="2" r:id="rId2"/>
-    <sheet name="Universities" sheetId="3" r:id="rId3"/>
-    <sheet name="Courses" sheetId="4" r:id="rId4"/>
-    <sheet name="Subjects" sheetId="5" r:id="rId5"/>
-    <sheet name="Internationals" sheetId="6" r:id="rId6"/>
-    <sheet name="Scholarships" sheetId="8" r:id="rId7"/>
-    <sheet name="Requisites" sheetId="7" r:id="rId8"/>
-    <sheet name="Areas" sheetId="9" r:id="rId9"/>
+    <sheet name="Countries" sheetId="11" r:id="rId1"/>
+    <sheet name="Users" sheetId="1" r:id="rId2"/>
+    <sheet name="UserPreferences" sheetId="2" r:id="rId3"/>
+    <sheet name="Universities" sheetId="3" r:id="rId4"/>
+    <sheet name="Courses" sheetId="4" r:id="rId5"/>
+    <sheet name="Subjects" sheetId="5" r:id="rId6"/>
+    <sheet name="Internationals" sheetId="6" r:id="rId7"/>
+    <sheet name="Scholarships" sheetId="8" r:id="rId8"/>
+    <sheet name="Requisites" sheetId="7" r:id="rId9"/>
+    <sheet name="Areas" sheetId="9" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="1420">
   <si>
     <t>IDUser</t>
   </si>
@@ -2872,19 +2873,1465 @@
   </si>
   <si>
     <t>Alice4</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>Aland Islands</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Antigua And Barbuda</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Bosnia And Herzegovina</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>BV</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Congo, Democratic Republic</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote D"Ivoire</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>GQ</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>Heard Island &amp; Mcdonald Islands</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Holy See (Vatican City State)</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Republic Of</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>Isle Of Man</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Lao People"s Democratic Republic</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>Micronesia, Federated States Of</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Palestinian Territory, Occupied</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>Saint Kitts And Nevis</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Saint Pierre And Miquelon</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>Saint Vincent And Grenadines</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Sao Tome And Principe</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>South Georgia And Sandwich Isl.</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>Svalbard And Jan Mayen</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Trinidad And Tobago</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Turks And Caicos Islands</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>United States Outlying Islands</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>Virgin Islands, British</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Virgin Islands, U.S.</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>Wallis And Futuna</t>
+  </si>
+  <si>
+    <t>EH</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>ZW</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2895,7 +4342,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2903,13 +4350,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3286,10 +4751,2072 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408059FF-08A1-4568-82B0-C329AA08C12A}">
+  <dimension ref="A1:B247"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B3" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B5" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B6" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B7" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B8" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B9" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B10" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B11" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B12" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B13" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B14" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B15" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B16" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B17" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B18" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B19" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B20" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B21" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="B22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B23" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B24" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="B25" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B26" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B27" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="B28" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="B29" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="B30" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="B31" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F6C9A0-43AF-41DC-9D9E-3CAB50694704}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3520,7 +7047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4107AD7A-D12E-4438-A8EA-AADD8B3F6967}">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -3967,12 +7494,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED51B2B4-E37E-4037-A7CB-A734D5821EB7}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4696,7 +8223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD2F609-0BBD-416D-A45A-C0B6B9A7AB9E}">
   <dimension ref="A1:J34"/>
   <sheetViews>
@@ -5781,7 +9308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEE09B6-0B5A-411B-BD0B-39F1A6D44CC8}">
   <dimension ref="A1:G592"/>
   <sheetViews>
@@ -16757,7 +20284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768462E7-3302-416F-AC27-9A79CE74649F}">
   <dimension ref="A1:C43"/>
   <sheetViews>
@@ -17259,7 +20786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FD2899-AFD3-4635-A74B-AA6EEFB1471E}">
   <dimension ref="A1:H52"/>
   <sheetViews>
@@ -18593,7 +22120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94EC4F8-82DD-42B7-B3AF-D4576CCF4A97}">
   <dimension ref="A1:D120"/>
   <sheetViews>
@@ -19929,75 +23456,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F6C9A0-43AF-41DC-9D9E-3CAB50694704}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>931</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/UniMatch/data/database/dataset.xlsx
+++ b/UniMatch/data/database/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\UniMatch\UniMatch\data\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB048E70-B1B9-4502-A76D-16A747B68646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A53C83-AA8B-4B75-A4B4-E01170E56F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5352" yWindow="348" windowWidth="17280" windowHeight="7608" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="11" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="1420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="1421">
   <si>
     <t>IDUser</t>
   </si>
@@ -4313,6 +4313,9 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>MainArea</t>
   </si>
 </sst>
 </file>
@@ -4754,7 +4757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408059FF-08A1-4568-82B0-C329AA08C12A}">
   <dimension ref="A1:B247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6814,15 +6817,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6841,8 +6844,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6861,8 +6867,11 @@
       <c r="F2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6881,8 +6890,11 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6901,8 +6913,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6921,8 +6936,11 @@
       <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6941,8 +6959,11 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6961,8 +6982,11 @@
       <c r="F7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6981,8 +7005,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7001,8 +7028,11 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7021,8 +7051,11 @@
       <c r="F10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7040,6 +7073,9 @@
       </c>
       <c r="F11">
         <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
